--- a/results/mp/logistic/corona/confidence/168/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,39 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -94,115 +97,115 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>relief</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
+    <t>helping</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
   <si>
     <t>stay</t>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7941176470588235</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -688,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7808219178082192</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C4">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D4">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.631578947368421</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8813559322033898</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6111111111111112</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,16 +862,16 @@
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.8590078328981723</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>329</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>329</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5135135135135135</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.835509138381201</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4705882352941176</v>
+        <v>0.4748062015503876</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4534883720930232</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C10">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="D10">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8207547169811321</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4497354497354497</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C11">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,49 +1091,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>48</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>0.8125</v>
+      </c>
+      <c r="L12">
+        <v>104</v>
+      </c>
+      <c r="M12">
+        <v>104</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>24</v>
-      </c>
-      <c r="D12">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>51</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12">
-        <v>0.7878787878787878</v>
-      </c>
-      <c r="L12">
-        <v>26</v>
-      </c>
-      <c r="M12">
-        <v>26</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3087248322147651</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.8125</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1706349206349206</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0938337801608579</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>338</v>
+        <v>213</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,37 +1291,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01752109020116807</v>
+        <v>0.08310991957104558</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6799999999999999</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3028</v>
+        <v>342</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7578125</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,37 +1341,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01228733459357278</v>
+        <v>0.02102879327078615</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E17">
-        <v>0.51</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2090</v>
+        <v>3026</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,89 +1391,113 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007648183556405353</v>
+        <v>0.01274787535410765</v>
       </c>
       <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>0.48</v>
+      </c>
+      <c r="F18">
+        <v>0.52</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2091</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L18">
+        <v>44</v>
+      </c>
+      <c r="M18">
+        <v>44</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18">
-        <v>87</v>
-      </c>
-      <c r="E18">
-        <v>0.72</v>
-      </c>
-      <c r="F18">
-        <v>0.28</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>3114</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L18">
-        <v>35</v>
-      </c>
-      <c r="M18">
-        <v>35</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="B19">
+        <v>0.007313195548489666</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>0.71</v>
+      </c>
+      <c r="F19">
+        <v>0.29</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3122</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7428571428571429</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1482,21 +1509,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1508,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.7222222222222222</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1534,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1560,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.7</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1586,12 +1613,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25">
         <v>0.68</v>
@@ -1617,16 +1644,16 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6511627906976745</v>
+        <v>0.675</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1638,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.6461538461538462</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1664,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.6411764705882353</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L28">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="M28">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1690,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.6192468619246861</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L29">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="M29">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1716,47 +1743,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.6142857142857143</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.6033898305084746</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1768,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.5851063829787234</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L32">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1794,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.5757575757575758</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1820,47 +1847,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.5056179775280899</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L34">
+        <v>44</v>
+      </c>
+      <c r="M34">
+        <v>44</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>45</v>
-      </c>
-      <c r="M34">
-        <v>45</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1872,47 +1899,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.4901960784313725</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.4666666666666667</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1924,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.3846153846153846</v>
+        <v>0.34375</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1950,21 +1977,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.3835616438356164</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1976,21 +2003,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.328125</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2002,163 +2029,137 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.06840390879478828</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.04807692307692308</v>
+        <v>0.05060240963855422</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.02666666666666667</v>
+        <v>0.02561247216035635</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K44">
-        <v>0.0198300283286119</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="L44">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M44">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N44">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="O44">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3114</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K45">
-        <v>0.01275389702409069</v>
+        <v>0.01181474480151229</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N45">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="O45">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46">
-        <v>0.008188666885031117</v>
-      </c>
-      <c r="L46">
-        <v>25</v>
-      </c>
-      <c r="M46">
-        <v>79</v>
-      </c>
-      <c r="N46">
-        <v>0.32</v>
-      </c>
-      <c r="O46">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>3028</v>
+        <v>2091</v>
       </c>
     </row>
   </sheetData>
